--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haaan\Documents\Studium\Studienarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahkusaidy/Documents/Repositories/CLDTSDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA72B9F-568A-4903-980F-7C8916323825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CCF11F-35A4-6441-A834-EF760CC3F5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F70AD8C9-764F-4286-941E-75A57845E2D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F70AD8C9-764F-4286-941E-75A57845E2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -57,18 +57,12 @@
     <t>Einführung</t>
   </si>
   <si>
-    <t>Extraktion einer neuen Sprache</t>
-  </si>
-  <si>
     <t>Neue Sprache definieren und Teil der Grammatik extrahieren, der benötigt wird</t>
   </si>
   <si>
     <t>Output File generieren</t>
   </si>
   <si>
-    <t>Output File der neuen Grammatik</t>
-  </si>
-  <si>
     <t>Evaluierung</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>Einlesen, Tokengenerierung, erste Struktur der Arbeit</t>
+  </si>
+  <si>
+    <t>Output File der neuen Grammatik generieren</t>
+  </si>
+  <si>
+    <t>Extraktion einer reduzierten Grammatik aus der ursprünglichen TPTP Syntax</t>
   </si>
 </sst>
 </file>
@@ -143,11 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -186,8 +189,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26222242805800622"/>
-          <c:y val="9.95633807576628E-2"/>
+          <c:x val="0.26597660098558573"/>
+          <c:y val="9.9563498546084206E-2"/>
           <c:w val="0.68419496298616367"/>
           <c:h val="0.8532263188131527"/>
         </c:manualLayout>
@@ -236,7 +239,7 @@
                   <c:v>Datenstruktur aufbauen</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Extraktion einer neuen Sprache</c:v>
+                  <c:v>Extraktion einer reduzierten Grammatik aus der ursprünglichen TPTP Syntax</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Output File generieren</c:v>
@@ -266,7 +269,7 @@
             <c:numRef>
               <c:f>Tabelle1!$B$14:$B$25</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43746</c:v>
@@ -296,7 +299,7 @@
                   <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43927</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43942</c:v>
@@ -318,7 +321,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$13</c:f>
+              <c:f>Tabelle1!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -339,7 +342,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$14:$C$24</c:f>
+              <c:f>Tabelle1!$D$14:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -368,10 +371,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>41</c:v>
@@ -472,7 +475,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1109,15 +1112,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>92074</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1445,17 +1448,18 @@
   <dimension ref="A13:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1463,207 +1467,207 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1">
         <v>43746</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
+        <v>43746</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
-        <v>43746</v>
-      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>43747</v>
       </c>
-      <c r="C15" s="3">
-        <f>D15-B15</f>
+      <c r="C15" s="1">
+        <v>43760</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-B15</f>
         <v>13</v>
       </c>
-      <c r="D15" s="1">
-        <v>43760</v>
-      </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1">
         <v>43760</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:C25" si="0">D16-B16</f>
+      <c r="C16" s="1">
+        <v>43774</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-B16</f>
         <v>14</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43774</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>43775</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
+      <c r="C17" s="1">
+        <v>43789</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-B17</f>
         <v>14</v>
       </c>
-      <c r="D17" s="1">
-        <v>43789</v>
-      </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>43790</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
+      <c r="C18" s="1">
+        <v>43836</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18-B18</f>
         <v>46</v>
       </c>
-      <c r="D18" s="1">
-        <v>43836</v>
-      </c>
       <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>43836</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
+      <c r="C19" s="1">
+        <v>43861</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-B19</f>
         <v>25</v>
       </c>
-      <c r="D19" s="1">
-        <v>43861</v>
-      </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>43862</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
+      <c r="C20" s="1">
+        <v>43876</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-B20</f>
         <v>14</v>
       </c>
-      <c r="D20" s="1">
-        <v>43876</v>
-      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>43877</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
+      <c r="C21" s="1">
+        <v>43897</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21-B21</f>
         <v>20</v>
       </c>
-      <c r="D21" s="1">
-        <v>43897</v>
-      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>43898</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43926</v>
+      <c r="C22" s="1">
+        <v>43918</v>
+      </c>
+      <c r="D22" s="3">
+        <f>C22-B22</f>
+        <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>43927</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D23" s="1">
+        <v>43919</v>
+      </c>
+      <c r="C23" s="1">
         <v>43941</v>
       </c>
+      <c r="D23" s="3">
+        <f>C23-B23</f>
+        <v>22</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>43942</v>
       </c>
-      <c r="C24" s="3">
-        <f t="shared" si="0"/>
+      <c r="C24" s="1">
+        <v>43983</v>
+      </c>
+      <c r="D24" s="3">
+        <f>C24-B24</f>
         <v>41</v>
       </c>
-      <c r="D24" s="1">
-        <v>43983</v>
-      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1">
         <v>43989</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" si="0"/>
+      <c r="C25" s="1">
+        <v>43990</v>
+      </c>
+      <c r="D25" s="3">
+        <f>C25-B25</f>
         <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43990</v>
       </c>
     </row>
   </sheetData>
